--- a/component/excel/read.xlsx
+++ b/component/excel/read.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6B2CE5-8829-BA42-92FC-74C34F6A86F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45342525-E8DD-CA4D-AC8F-304EEC8266A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
   <si>
     <t/>
   </si>
@@ -37,6 +37,10 @@
   </si>
   <si>
     <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hahha</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -92,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -102,8 +106,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -382,7 +384,7 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -394,13 +396,12 @@
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:20" ht="17">
       <c r="A2" s="4">
@@ -421,7 +422,9 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:20">
